--- a/dataset/excel data/18-279.xlsx
+++ b/dataset/excel data/18-279.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69220E5C-1B67-49AE-89A9-C1D089D44327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FAA07E-40E9-4A46-B708-2770D376EEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18-279" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="104">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,7 +262,7 @@
     <t>DIN</t>
   </si>
   <si>
-    <t>0.7895</t>
+    <t>0.8214</t>
   </si>
   <si>
     <t/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0941</t>
+    <t>0.0655</t>
   </si>
   <si>
     <t>1955</t>
@@ -280,70 +280,136 @@
     <t>HAL</t>
   </si>
   <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0204</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
     <t>FOY</t>
   </si>
   <si>
-    <t>0.7569</t>
-  </si>
-  <si>
-    <t>0.036</t>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>0.0176</t>
   </si>
   <si>
     <t>LIV</t>
   </si>
   <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>KIT</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.1024</t>
-  </si>
-  <si>
-    <t>0.0963</t>
+    <t>0.8889</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>LAU</t>
+  </si>
+  <si>
+    <t>0.9024</t>
+  </si>
+  <si>
+    <t>0.0504</t>
   </si>
   <si>
     <t>CLO</t>
   </si>
   <si>
-    <t>BAT</t>
-  </si>
-  <si>
-    <t>LAU</t>
-  </si>
-  <si>
-    <t>0.0736</t>
-  </si>
-  <si>
-    <t>0.8754</t>
-  </si>
-  <si>
-    <t>0.7082</t>
-  </si>
-  <si>
-    <t>0.9804</t>
-  </si>
-  <si>
-    <t>0.0234</t>
-  </si>
-  <si>
-    <t>0.4314</t>
-  </si>
-  <si>
-    <t>0.0103</t>
-  </si>
-  <si>
-    <t>0.0173</t>
-  </si>
-  <si>
-    <t>0.6944</t>
-  </si>
-  <si>
-    <t>0.0083</t>
+    <t>0.7636</t>
+  </si>
+  <si>
+    <t>0.0192</t>
+  </si>
+  <si>
+    <t>0.0523</t>
+  </si>
+  <si>
+    <t>0.0598</t>
+  </si>
+  <si>
+    <t>0.5263</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.7119</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>18-279-2</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>0.9231</t>
+  </si>
+  <si>
+    <t>0.1467</t>
+  </si>
+  <si>
+    <t>0.8155</t>
+  </si>
+  <si>
+    <t>0.2124</t>
+  </si>
+  <si>
+    <t>0.1228</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.0705</t>
+  </si>
+  <si>
+    <t>0.7005</t>
+  </si>
+  <si>
+    <t>0.1175</t>
+  </si>
+  <si>
+    <t>0.5677</t>
+  </si>
+  <si>
+    <t>0.0654</t>
+  </si>
+  <si>
+    <t>0.2193</t>
+  </si>
+  <si>
+    <t>0.0368</t>
+  </si>
+  <si>
+    <t>0.0172</t>
+  </si>
+  <si>
+    <t>0.0541</t>
+  </si>
+  <si>
+    <t>0.7255</t>
+  </si>
+  <si>
+    <t>0.0091</t>
+  </si>
+  <si>
+    <t>0.1849</t>
+  </si>
+  <si>
+    <t>0.3796</t>
+  </si>
+  <si>
+    <t>0.0212</t>
   </si>
 </sst>
 </file>
@@ -492,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,13 +568,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,13 +589,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -538,37 +604,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,7 +925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -898,30 +967,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -950,14 +1019,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1028,10 +1097,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1210,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.3654</v>
+        <v>0.24690000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>0.25750000000000001</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1258,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>59</v>
@@ -1296,19 +1365,19 @@
         <v>60</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.23080000000000001</v>
+        <v>7.6799999999999993E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.15590000000000001</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0.37890000000000001</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>61</v>
@@ -1332,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1350,28 +1419,28 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="1">
         <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -1388,19 +1457,19 @@
         <v>60</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.23080000000000001</v>
+        <v>7.6799999999999993E-2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.15590000000000001</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0.37890000000000001</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>61</v>
@@ -1424,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1442,16 +1511,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AB7" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>1</v>
@@ -1480,22 +1549,22 @@
         <v>65</v>
       </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.30449999999999999</v>
+        <v>0.11459999999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>0.3362</v>
+        <v>0.1532</v>
       </c>
       <c r="J8" s="1">
-        <v>0.8085</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -1507,7 +1576,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>58</v>
@@ -1534,28 +1603,28 @@
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1569,25 +1638,25 @@
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.30449999999999999</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>0.3362</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="J9" s="1">
-        <v>0.8085</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
@@ -1599,7 +1668,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>58</v>
@@ -1626,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1661,25 +1730,25 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.3221</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="J10" s="1">
-        <v>0.9617</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>55</v>
@@ -1691,7 +1760,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>58</v>
@@ -1703,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1712,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
@@ -1753,25 +1822,25 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.3221</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="J11" s="1">
-        <v>0.9617</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>55</v>
@@ -1783,7 +1852,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1795,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1804,34 +1873,34 @@
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AB11" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1845,25 +1914,25 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.3221</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="J12" s="1">
-        <v>0.9617</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>55</v>
@@ -1875,7 +1944,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1887,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -1896,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
@@ -1937,25 +2006,25 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.3221</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="J13" s="1">
-        <v>0.9617</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
@@ -1967,7 +2036,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -1979,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -1988,25 +2057,25 @@
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
         <v>1</v>
@@ -2038,16 +2107,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.3221</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.24379999999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.9617</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
@@ -2059,7 +2128,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2092,22 +2161,22 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="1">
         <v>1</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -2130,16 +2199,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.3221</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>0.29899999999999999</v>
+        <v>0.24379999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.9617</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -2151,7 +2220,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2184,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AC15" s="1">
         <v>1</v>
@@ -2199,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -2213,25 +2282,25 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -2276,22 +2345,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2305,25 +2374,25 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
@@ -2368,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AB17" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1">
         <v>1</v>
@@ -2397,25 +2466,25 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.78710000000000002</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2460,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC18" s="1">
         <v>1</v>
@@ -2489,25 +2558,25 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.24379999999999999</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2519,7 +2588,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2531,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2540,34 +2609,34 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC19" s="1">
         <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -2581,25 +2650,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.13850000000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.1384</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2611,7 +2680,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2620,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2638,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="1">
         <v>1</v>
@@ -2673,25 +2742,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.13850000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.1384</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2703,7 +2772,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>58</v>
@@ -2712,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2730,28 +2799,28 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB21" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
       </c>
       <c r="AD21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
@@ -2765,25 +2834,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.16619999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -2795,7 +2864,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2807,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2816,34 +2885,34 @@
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AB22" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
@@ -2857,25 +2926,25 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.95189999999999997</v>
+        <v>0.16619999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>55</v>
@@ -2887,7 +2956,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>58</v>
@@ -2899,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -2908,22 +2977,22 @@
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AB23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="1">
         <v>1</v>
@@ -2952,22 +3021,22 @@
         <v>70</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.16350000000000001</v>
+        <v>0.16619999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.1431</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0.69110000000000005</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>55</v>
@@ -2991,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" s="1">
         <v>0</v>
@@ -3000,16 +3069,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>59</v>
@@ -3041,25 +3110,25 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.16350000000000001</v>
+        <v>0.18509999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>6.2899999999999998E-2</v>
+        <v>0.32290000000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3071,7 +3140,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>58</v>
@@ -3080,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3092,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -3104,22 +3173,22 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AB25" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
@@ -3133,25 +3202,25 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.1154</v>
+        <v>0.18509999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>0.1502</v>
+        <v>0.32290000000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.68569999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3163,7 +3232,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3172,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3195,23 +3264,23 @@
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26" s="1">
-        <v>0</v>
+      <c r="AA26" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
@@ -3225,25 +3294,25 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1">
         <v>11</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.1154</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>7.1499999999999994E-2</v>
+        <v>6.59E-2</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3255,7 +3324,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>58</v>
@@ -3288,21 +3357,2505 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB28" s="1">
         <v>8</v>
       </c>
-      <c r="AC27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="1">
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>2</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>2</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>2</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>2</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>2</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <v>2</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>5</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>5</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>5</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>5</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>5</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>5</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.1033</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>2</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="1">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.1033</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>2</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="1">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.4239</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="1">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1</v>
+      </c>
+      <c r="W50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>1</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB51" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB52" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="1">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.5897</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="1">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.1033</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>1</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="1">
         <v>0.25</v>
       </c>
     </row>
